--- a/docs/StructureDefinition-structuredefinition-hl7au-vsd-ext-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-vsd-ext-1.xlsx
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}vsd-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}hl7au-vsd-base-05:The url must end with the id value {url.replace('http://terminology.hl7.org.au/ValueSet/','') = id}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}vsd-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}hl7au-vsd-base-05:The url should end with the id value, unless it is an AU extended ValueSet {url.replace('http://terminology.hl7.org.au/ValueSet/','') = id}</t>
   </si>
   <si>
     <t>N/A</t>

--- a/docs/StructureDefinition-structuredefinition-hl7au-vsd-ext-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-vsd-ext-1.xlsx
@@ -2334,44 +2334,44 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="61.71484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="74.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.0" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="53.6328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="48.0546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="48.05859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
